--- a/src/main/resources/templates/tcgdd.xlsx
+++ b/src/main/resources/templates/tcgdd.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mexjj\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\renyi\renyi\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A80B89ED-32E1-4451-9604-D52770053216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A51B65EF-912A-411B-9FC9-33FA331F8AED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -509,7 +509,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>*单据日期</t>
   </si>
@@ -686,6 +686,26 @@
   </si>
   <si>
     <t>{.taxAcount}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{.tname}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{.merchantname}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{.departmentName}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{.userName}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{.ckname}</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -807,14 +827,11 @@
   </cellStyleXfs>
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="12">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="9"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="9" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="8"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
@@ -837,9 +854,12 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="11"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="10"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="11" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="10" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="13" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="12">
       <alignment wrapText="1"/>
     </xf>
@@ -1195,224 +1215,239 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomLeft" activeCell="U4" sqref="U4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="6.44140625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="6.44140625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="10.33203125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="4.5546875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="11.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.77734375" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.33203125" customWidth="1"/>
-    <col min="10" max="10" width="8.33203125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="6.44140625" style="4" customWidth="1"/>
-    <col min="12" max="12" width="8.33203125" style="4" customWidth="1"/>
-    <col min="13" max="13" width="6.44140625" style="4" customWidth="1"/>
-    <col min="14" max="14" width="10.33203125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="8.33203125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="6.44140625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="8.33203125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="6.44140625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="10.33203125" style="3" customWidth="1"/>
     <col min="15" max="15" width="8.33203125" customWidth="1"/>
-    <col min="16" max="16" width="10.33203125" style="4" customWidth="1"/>
-    <col min="17" max="18" width="4.5546875" style="4" customWidth="1"/>
-    <col min="19" max="19" width="8.33203125" style="4" customWidth="1"/>
-    <col min="20" max="20" width="4.5546875" style="4" customWidth="1"/>
-    <col min="21" max="21" width="8.33203125" style="4" customWidth="1"/>
-    <col min="22" max="22" width="4.5546875" style="4" customWidth="1"/>
-    <col min="23" max="23" width="10.33203125" style="4" customWidth="1"/>
-    <col min="24" max="24" width="8.33203125" style="4" customWidth="1"/>
-    <col min="25" max="25" width="10.33203125" style="4" customWidth="1"/>
-    <col min="26" max="26" width="6.44140625" style="13" customWidth="1"/>
-    <col min="27" max="27" width="4.5546875" style="13" customWidth="1"/>
-    <col min="28" max="28" width="6.44140625" style="14" customWidth="1"/>
-    <col min="29" max="29" width="10.33203125" style="13" customWidth="1"/>
-    <col min="30" max="30" width="8.33203125" style="14" customWidth="1"/>
-    <col min="31" max="31" width="10.33203125" style="13" customWidth="1"/>
-    <col min="32" max="32" width="12.109375" style="2" customWidth="1"/>
+    <col min="16" max="16" width="10.33203125" style="3" customWidth="1"/>
+    <col min="17" max="18" width="4.5546875" style="3" customWidth="1"/>
+    <col min="19" max="19" width="8.33203125" style="3" customWidth="1"/>
+    <col min="20" max="20" width="9.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.33203125" style="3" customWidth="1"/>
+    <col min="22" max="22" width="4.5546875" style="3" customWidth="1"/>
+    <col min="23" max="23" width="10.33203125" style="3" customWidth="1"/>
+    <col min="24" max="24" width="9.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.33203125" style="3" customWidth="1"/>
+    <col min="26" max="26" width="6.44140625" style="12" customWidth="1"/>
+    <col min="27" max="27" width="4.5546875" style="12" customWidth="1"/>
+    <col min="28" max="28" width="6.44140625" style="13" customWidth="1"/>
+    <col min="29" max="29" width="10.33203125" style="12" customWidth="1"/>
+    <col min="30" max="30" width="8.33203125" style="13" customWidth="1"/>
+    <col min="31" max="31" width="10.33203125" style="12" customWidth="1"/>
+    <col min="32" max="32" width="12.109375" style="1" customWidth="1"/>
     <col min="33" max="33" width="4.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="16" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:33" s="15" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-      <c r="AA1" s="1"/>
-      <c r="AB1" s="1"/>
-      <c r="AC1" s="1"/>
-      <c r="AD1" s="1"/>
-      <c r="AE1" s="1"/>
-      <c r="AF1" s="1"/>
-      <c r="AG1" s="1"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="16"/>
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="16"/>
+      <c r="AA1" s="16"/>
+      <c r="AB1" s="16"/>
+      <c r="AC1" s="16"/>
+      <c r="AD1" s="16"/>
+      <c r="AE1" s="16"/>
+      <c r="AF1" s="16"/>
+      <c r="AG1" s="16"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="O2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="P2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="Q2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="R2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="S2" s="8" t="s">
+      <c r="S2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="T2" s="9" t="s">
+      <c r="T2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="U2" s="8" t="s">
+      <c r="U2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="V2" s="11" t="s">
+      <c r="V2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="W2" s="12" t="s">
+      <c r="W2" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="X2" s="11" t="s">
+      <c r="X2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="Y2" s="12" t="s">
+      <c r="Y2" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="Z2" s="12" t="s">
+      <c r="Z2" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="AA2" s="11" t="s">
+      <c r="AA2" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="AB2" s="11" t="s">
+      <c r="AB2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="AC2" s="12" t="s">
+      <c r="AC2" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="AD2" s="12" t="s">
+      <c r="AD2" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="AE2" s="12" t="s">
+      <c r="AE2" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="AF2" s="11" t="s">
+      <c r="AF2" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="AG2" s="9" t="s">
+      <c r="AG2" s="8" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="D3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="F3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="H3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="N3" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="S3" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="W3" s="4" t="s">
+      <c r="T3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="W3" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="Y3" s="4" t="s">
+      <c r="X3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y3" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="Z3" s="13" t="s">
+      <c r="Z3" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="AC3" s="13" t="s">
+      <c r="AC3" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="AD3" s="14" t="s">
+      <c r="AD3" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="AE3" s="13" t="s">
+      <c r="AE3" s="12" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1580,30 +1615,30 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" style="4" customWidth="1"/>
-    <col min="3" max="4" width="8.33203125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" style="13" customWidth="1"/>
-    <col min="6" max="6" width="6.44140625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" style="3" customWidth="1"/>
+    <col min="3" max="4" width="8.33203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="12" customWidth="1"/>
+    <col min="6" max="6" width="6.44140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="14" t="s">
         <v>38</v>
       </c>
     </row>
